--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t xml:space="preserve">UserId</t>
   </si>
@@ -86,6 +87,24 @@
   </si>
   <si>
     <t xml:space="preserve">test@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testuser4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shre4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganesh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ganesh4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456712898</t>
   </si>
 </sst>
 </file>
@@ -209,10 +228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,7 +335,33 @@
         <v>1234567898</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" display="test@12345"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -325,4 +370,77 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>1234567893</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1234567898</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -115,7 +116,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -144,6 +145,25 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,6 +229,30 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -230,7 +274,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -380,7 +424,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,4 +487,99 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C3:F14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="5"/>
+      <c r="E14" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>